--- a/Data/Transitions/19361947Translation.xlsx
+++ b/Data/Transitions/19361947Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="661">
   <si>
     <t>id</t>
   </si>
@@ -91,7 +91,7 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
@@ -163,7 +163,7 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.996400449943757, 178.0: 0.008755573571139035}</t>
+    <t>{85.0: 0.9963619827194179, 178.0: 0.008801955990220049}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -205,7 +205,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -229,7 +229,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544}</t>
+    <t>{107.0: 1.0}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -250,10 +250,10 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 1.0, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 1.0, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
@@ -274,7 +274,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -286,7 +286,7 @@
     <t>{165.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
@@ -307,7 +307,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -319,19 +319,19 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.991244426428861}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.40698361611390244, 850.0: 0.001083483836576113}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5930163838860975, 850.0: 0.0015787457807283794}</t>
+    <t>{178.0: 0.99119804400978}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.40681549296858815, 850.0: 0.001085203048932546}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5931845070314118, 850.0: 0.0015823528030181042}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
@@ -343,13 +343,13 @@
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -358,13 +358,13 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -373,7 +373,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496}</t>
+    <t>{212.0: 0.9991932230738201}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -397,7 +397,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 503.0: 0.04728284124946513}</t>
+    <t>{222.0: 1.0, 503.0: 0.047506448839208945}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -409,7 +409,7 @@
     <t>{226.0: 0.7393333955746428}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -442,10 +442,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -463,7 +466,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9990227217200097}</t>
+    <t>{249.0: 0.9990134418547293}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -502,7 +505,7 @@
     <t>{262.0: 0.9778834229020257}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -511,7 +514,7 @@
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -532,7 +535,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9974743723072352}</t>
+    <t>{277.0: 0.9974721189591078}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -544,7 +547,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235}</t>
+    <t>{282.0: 0.9971910112359551}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -583,10 +586,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -598,7 +601,7 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -613,7 +616,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -640,9 +643,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -655,16 +655,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 141.0: 0.0015172204521316948}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.9981033392723719, 907.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{402.0: 0.9989634083134653, 141.0: 0.0015172204521316948}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.9980654238480479, 907.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -673,7 +673,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -703,7 +703,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -718,7 +718,7 @@
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.9990803893018622}</t>
@@ -727,10 +727,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -772,13 +772,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.08288882327934162}</t>
+    <t>{477.0: 0.0828872914271976}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -805,13 +805,13 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 1.0, 503.0: 0.007702182284980745}</t>
+    <t>{490.0: 1.0, 503.0: 0.007738607050730868}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.0038666022232962784, 696.0: 0.001007725898555593}</t>
+    <t>{492.0: 1.0, 97.0: 0.0038548024413748794, 696.0: 0.0009791122715404699}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -838,10 +838,10 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9450149764655541}</t>
+    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9447549441100602}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -877,7 +877,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -946,7 +946,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9356220484668233, 752.0: 0.04612635356536104}</t>
+    <t>{580.0: 0.935665293499582, 752.0: 0.046284020554380495}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -985,7 +985,7 @@
     <t>{593.0: 1.0, 171.0: 0.005747126436781609}</t>
   </si>
   <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1012,7 +1012,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
@@ -1084,7 +1084,7 @@
     <t>{627.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1105,7 +1105,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1135,7 +1135,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658}</t>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1156,10 +1156,10 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9801570036886409}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989922741014444}</t>
+    <t>{695.0: 0.9802098910129465}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990208877284595}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1174,7 +1174,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1243,7 +1243,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.06437795153317666}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.0643347065004179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1285,7 +1285,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1294,7 +1294,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1312,10 +1312,10 @@
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1330,7 +1330,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1348,13 +1348,13 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 1.0, 836.0: 0.0014807502467917078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9985192497532083}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0}</t>
+    <t>{835.0: 1.0, 836.0: 0.0014044943820224719}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9985955056179775}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1372,7 +1372,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1384,25 +1384,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 634.0: 0.9963536918869644}</t>
+    <t>{848.0: 1.0, 634.0: 0.9964896884598509}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.7249194398222232, 680.0: 0.002957121734844751, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.7248987685431864, 680.0: 0.002957121734844751, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1411,7 +1411,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1456,16 +1456,16 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1474,7 +1474,7 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1501,7 +1501,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1510,7 +1510,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9965801756052919}</t>
+    <t>{922.0: 0.9965078673810798}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.0009772782799902272}</t>
+    <t>{933.0: 1.0, 249.0: 0.000986558145270687}</t>
   </si>
   <si>
     <t>{934.0: 1.0}</t>
@@ -1549,7 +1549,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1558,7 +1558,7 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
+    <t>{942.0: 0.9907869481765835}</t>
   </si>
   <si>
     <t>{943.0: 1.0}</t>
@@ -1567,7 +1567,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1582,7 +1582,7 @@
     <t>{975.0: 1.0}</t>
   </si>
   <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
@@ -1606,7 +1606,7 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.6522559926848331}</t>
+    <t>{992.0: 0.6522602170250872}</t>
   </si>
   <si>
     <t>{9.0: 0.9995276334435521, 208.0: 0.00047236655644780347}</t>
@@ -1636,16 +1636,13 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0}</t>
-  </si>
-  <si>
     <t>{140.0: 0.9858227848101264, 762.0: 0.014177215189873417}</t>
   </si>
   <si>
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289217}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1660,7 +1657,7 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589453, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1675,13 +1672,13 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.5993060590489727, 180.0: 0.40051465954568005, 850.0: 0.00017928140534721575}</t>
+    <t>{179.0: 0.6003432513722297, 180.0: 0.39947793129057646, 850.0: 0.00017881733719363324}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069352, 850.0: 0.0004474272930648769}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971718123968887, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073768}</t>
+    <t>{182.0: 0.9971607713237906, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944754}</t>
   </si>
   <si>
     <t>{202.0: 0.8125259307831425, 307.0: 0.18747406921685753}</t>
@@ -1690,7 +1687,7 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.998085701663967, 688.0: 0.0019142983360329847}</t>
@@ -1702,19 +1699,19 @@
     <t>{212.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8492496589358798, 503.0: 0.15075034106412005}</t>
+    <t>{222.0: 0.8489405331510596, 503.0: 0.15105946684894053}</t>
   </si>
   <si>
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.99756178276281, 297.0: 0.00018045618356780216, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524384, 297.0: 0.0001786147939395593, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427765, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
   </si>
   <si>
-    <t>{240.0: 0.23802619996893287, 241.0: 0.7619738000310672}</t>
+    <t>{240.0: 0.2380261999689329, 241.0: 0.7619738000310672}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1729,10 +1726,10 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492868}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862115, 942.0: 0.0002797618337629159}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1741,19 +1738,19 @@
     <t>{282.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9603432910825849, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938826, 297.0: 0.013922582006117503}</t>
+    <t>{297.0: 0.960343232031825, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.986078886310905, 297.0: 0.013921113689095122}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9976967370441457, 144.0: 0.0023032629558541267}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662857, 426.0: 0.0731432659158121, 204.0: 0.001076591817902184}</t>
+    <t>{303.0: 0.9976869699306089, 144.0: 0.002313030069390902}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879631, 426.0: 0.07086273685860801, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -1771,10 +1768,10 @@
     <t>{404.0: 0.7774172615184943, 907.0: 0.2225827384815055}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597467, 212.0: 0.00016450074025333114}</t>
@@ -1786,7 +1783,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749248, 431.0: 0.00018684574941587383, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.999281049806884, 431.0: 0.00035663135253636115, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1804,13 +1801,13 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977857, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869782, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9974491964968968, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9974491964968965, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
   </si>
   <si>
     <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409936, 695.0: 0.0011773016246762421}</t>
@@ -1843,7 +1840,7 @@
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643214, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.9884629037983671, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1861,7 +1858,7 @@
     <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774044}</t>
   </si>
   <si>
-    <t>{604.0: 0.996050552922591, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.996050552922591, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.974858757062147, 475.0: 0.02514124293785311}</t>
@@ -1882,7 +1879,7 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458069, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852505, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972788, 208.0: 0.042517006802721094}</t>
@@ -1903,7 +1900,7 @@
     <t>{700.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.8066928545138229, 580.0: 0.19330714548617692}</t>
+    <t>{752.0: 0.8066160041894901, 580.0: 0.19338399581050952}</t>
   </si>
   <si>
     <t>{758.0: 0.9991689750692521, 583.0: 0.0008310249307479224}</t>
@@ -1912,13 +1909,13 @@
     <t>{762.0: 0.9509029955661299, 141.0: 0.049097004433870446}</t>
   </si>
   <si>
-    <t>{770.0: 0.980357142857143, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9996501457725946, 81.0: 0.0003498542274052478}</t>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.0003498542274052478}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1951,16 +1948,16 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.989914662529092, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8498905405759649, 202.0: 0.06322593160796895, 680.0: 7.416687140507294e-05, 477.0: 0.08456974516110818, 307.0: 8.840671277534608e-05, 207.0: 0.0021512090707774324}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455601, 976.0: 0.0026544401544401543}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940952, 695.0: 0.007233540005904928}</t>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8498905405759649, 202.0: 0.06322593160796895, 680.0: 7.416687140507294e-05, 477.0: 0.08463625823252664, 307.0: 8.840671277534608e-05, 207.0: 0.0020846959993589646}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178295, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997019, 695.0: 0.007303622000298107}</t>
   </si>
   <si>
     <t>{886.0: 1.0}</t>
@@ -1975,13 +1972,13 @@
     <t>{896.0: 0.873015873015873, 209.0: 0.1035923141186299, 400.0: 0.0075187969924812035, 432.0: 0.00835421888053467, 895.0: 0.0075187969924812035}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418464, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.994110429447853, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.9990142927550515, 249.0: 0.0009857072449482504}</t>
+    <t>{933.0: 0.9990069513406155, 249.0: 0.0009930486593843098}</t>
   </si>
   <si>
     <t>{937.0: 0.9949109414758269, 85.0: 0.005089058524173028}</t>
@@ -3130,7 +3127,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>540</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3185,7 +3182,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3196,7 +3193,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3207,7 +3204,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3218,7 +3215,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3229,7 +3226,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3262,7 +3259,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3295,7 +3292,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3339,7 +3336,7 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3383,7 +3380,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3416,7 +3413,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3427,7 +3424,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3460,7 +3457,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3471,7 +3468,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3482,7 +3479,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3504,7 +3501,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3548,7 +3545,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3570,7 +3567,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3603,7 +3600,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3614,7 +3611,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3625,7 +3622,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3658,7 +3655,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3746,7 +3743,7 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3779,7 +3776,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3790,7 +3787,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3845,7 +3842,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3911,7 +3908,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3922,12 +3919,12 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3938,7 +3935,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3949,7 +3946,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3960,7 +3957,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3971,7 +3968,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3982,40 +3979,40 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>568</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>568</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4026,7 +4023,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -4037,7 +4034,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4048,7 +4045,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4059,7 +4056,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4070,7 +4067,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4081,7 +4078,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4092,7 +4089,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4103,7 +4100,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4114,40 +4111,40 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>570</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>570</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4158,29 +4155,29 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>572</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4191,7 +4188,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4202,7 +4199,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4213,7 +4210,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4224,7 +4221,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4235,29 +4232,29 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>573</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>572</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4268,7 +4265,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4279,29 +4276,29 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>574</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4312,7 +4309,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4323,7 +4320,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4334,7 +4331,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4345,7 +4342,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4356,7 +4353,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4367,7 +4364,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4378,7 +4375,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4389,7 +4386,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4400,7 +4397,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4411,7 +4408,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4422,40 +4419,40 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>575</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>191</v>
+        <v>575</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4466,40 +4463,40 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>577</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>195</v>
+        <v>577</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4510,7 +4507,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4521,7 +4518,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4532,29 +4529,29 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>579</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>578</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4565,29 +4562,29 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>563</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>562</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4598,7 +4595,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4609,7 +4606,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4620,7 +4617,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4631,7 +4628,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4659,7 +4656,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4670,7 +4667,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4692,7 +4689,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4703,7 +4700,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4714,7 +4711,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4725,7 +4722,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4758,7 +4755,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4868,7 +4865,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4923,7 +4920,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4934,7 +4931,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4956,7 +4953,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4967,7 +4964,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4978,7 +4975,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5077,7 +5074,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5099,7 +5096,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5121,7 +5118,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5143,7 +5140,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5242,7 +5239,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5264,7 +5261,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5363,7 +5360,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5374,7 +5371,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5418,7 +5415,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5451,7 +5448,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5484,7 +5481,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5506,7 +5503,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5550,7 +5547,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5627,7 +5624,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5660,7 +5657,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5671,7 +5668,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5759,7 +5756,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5770,7 +5767,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5792,7 +5789,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5847,7 +5844,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5891,7 +5888,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5902,7 +5899,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6001,7 +5998,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6012,7 +6009,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6056,7 +6053,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6067,7 +6064,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6265,7 +6262,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6342,7 +6339,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6375,7 +6372,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6452,7 +6449,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6463,7 +6460,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6474,7 +6471,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6518,7 +6515,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6529,7 +6526,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6540,7 +6537,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6573,7 +6570,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6595,7 +6592,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6848,7 +6845,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6903,7 +6900,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6947,7 +6944,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7002,7 +6999,7 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7035,7 +7032,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7101,7 +7098,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7112,7 +7109,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7134,7 +7131,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7167,7 +7164,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7211,7 +7208,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7233,7 +7230,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7244,7 +7241,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7255,7 +7252,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7321,7 +7318,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7365,7 +7362,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7387,7 +7384,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7409,7 +7406,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7420,7 +7417,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7431,7 +7428,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7464,7 +7461,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7552,7 +7549,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7629,7 +7626,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7651,7 +7648,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7662,7 +7659,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7695,7 +7692,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7794,7 +7791,7 @@
         <v>495</v>
       </c>
       <c r="C494" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7827,7 +7824,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7926,7 +7923,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7970,7 +7967,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -7981,7 +7978,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8003,7 +8000,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8036,7 +8033,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8091,7 +8088,7 @@
         <v>522</v>
       </c>
       <c r="C521" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -8124,7 +8121,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8179,7 +8176,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
